--- a/NEUE AUSWERTUNG.xlsx
+++ b/NEUE AUSWERTUNG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Desktop\Bachelor\Thesis\Arbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1044B45C-470E-4C2F-B04D-AD05BA40D82F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308E39C0-A3A0-45EC-A4E8-5C8367D0A817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="1785" windowWidth="17805" windowHeight="18465" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30465" yWindow="1200" windowWidth="17805" windowHeight="18465" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NoDelay" sheetId="1" r:id="rId1"/>
@@ -276,6 +276,9 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -288,9 +291,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
@@ -413,8 +413,8 @@
     <tableColumn id="5" xr3:uid="{2F808078-ED8A-4329-B6B9-65F38404FBFD}" name="Max" dataDxfId="10"/>
     <tableColumn id="6" xr3:uid="{21B43BD0-07AC-490E-99FC-57B0C373424D}" name="ResTime Mean" dataDxfId="9"/>
     <tableColumn id="7" xr3:uid="{D85455B5-F82C-4F9F-8853-BCC86A051F59}" name="ResTime Median" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{BA9C2896-0721-4576-A076-F0B42D62932E}" name="Request/Sec" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{8DF8D920-31DF-438D-86FB-675BA28F22D7}" name="Time Taken" dataDxfId="7">
+    <tableColumn id="8" xr3:uid="{BA9C2896-0721-4576-A076-F0B42D62932E}" name="Request/Sec" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{8DF8D920-31DF-438D-86FB-675BA28F22D7}" name="Time Taken" dataDxfId="6">
       <calculatedColumnFormula>(C3/H3)/60</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2372,10 +2372,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00A1C0C6-3C13-4DA3-8347-98ABCCE36BDA}">
-  <dimension ref="B2:I20"/>
+  <dimension ref="B2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2384,7 +2384,7 @@
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>10.224509785878316</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -2463,8 +2463,18 @@
         <f t="shared" si="0"/>
         <v>10.377685485561527</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>16.13</v>
+      </c>
+      <c r="L4">
+        <v>615</v>
+      </c>
+      <c r="M4">
+        <f>L10-L4</f>
+        <v>751</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -2491,7 +2501,7 @@
         <v>10.392763311051249</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -2518,7 +2528,7 @@
         <v>27.189576603913121</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>10</v>
       </c>
@@ -2544,8 +2554,14 @@
         <f t="shared" si="0"/>
         <v>26.910801457489008</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>6.11</v>
+      </c>
+      <c r="L7">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -2562,7 +2578,7 @@
         <v>1654.91</v>
       </c>
       <c r="G8" s="12">
-        <v>1946</v>
+        <v>1646</v>
       </c>
       <c r="H8" s="13">
         <v>6.0129999999999999</v>
@@ -2572,7 +2588,7 @@
         <v>27.717722711901992</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
@@ -2599,7 +2615,7 @@
         <v>23.063581681980885</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -2625,8 +2641,14 @@
         <f t="shared" si="0"/>
         <v>23.256354798948813</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>7.2</v>
+      </c>
+      <c r="L10">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -2653,7 +2675,7 @@
         <v>23.109000858776692</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -2680,7 +2702,7 @@
         <v>66.956750090759868</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -2706,8 +2728,18 @@
         <f t="shared" si="0"/>
         <v>64.462064075291693</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>2.48</v>
+      </c>
+      <c r="L13">
+        <v>3799</v>
+      </c>
+      <c r="M13">
+        <f>L19-L13</f>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -2734,7 +2766,7 @@
         <v>70.666384001130666</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>12</v>
       </c>
@@ -2761,7 +2793,7 @@
         <v>100.49283697107354</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -2787,8 +2819,14 @@
         <f t="shared" si="0"/>
         <v>109.64912280701755</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>1.62</v>
+      </c>
+      <c r="L16">
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>12</v>
       </c>
@@ -2815,7 +2853,7 @@
         <v>99.96801023672424</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
@@ -2842,7 +2880,7 @@
         <v>79.136337665256463</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>13</v>
       </c>
@@ -2868,8 +2906,14 @@
         <f t="shared" si="0"/>
         <v>78.608936263874483</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>2.08</v>
+      </c>
+      <c r="L19">
+        <v>4543</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>13</v>
       </c>
@@ -2909,7 +2953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C605C3-85BE-4B1C-BCC6-90A5FCC7F622}">
   <dimension ref="B2:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
